--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="4"/>
+    <workbookView windowWidth="20130" windowHeight="8145" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -335,13 +335,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="#,##0.00;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -421,7 +421,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,18 +454,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -454,8 +462,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +494,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,23 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -509,39 +547,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,13 +560,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -576,7 +576,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,175 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,6 +794,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -804,21 +819,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -841,35 +841,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,11 +885,11 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,132 +901,132 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,14 +1037,14 @@
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1094,7 +1094,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3035,7 +3035,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="8145" activeTab="4"/>
+    <workbookView windowWidth="21000" windowHeight="8472" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
   <si>
     <t>Online Instruction Page</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>This medicine is used for the relief of clogged nose; sneezing; rinny, itchy nose; and itchy, watery eyes associated with allergic rhinitis.</t>
+  </si>
+  <si>
+    <t>fgh</t>
   </si>
   <si>
     <t>Children's Health</t>
@@ -336,11 +339,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00;\-#,##0.00"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="31">
@@ -421,23 +424,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -447,8 +437,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,6 +460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -471,17 +474,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,6 +492,30 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,32 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,6 +549,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -576,7 +579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,19 +633,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,67 +711,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,61 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,11 +788,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,36 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -846,21 +873,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,22 +885,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,132 +904,132 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,15 +1039,15 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1233,7 +1236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="129540" y="68580"/>
-          <a:ext cx="2148840" cy="377190"/>
+          <a:ext cx="2171700" cy="369570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,8 +1270,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="1171575"/>
-          <a:ext cx="942975" cy="723900"/>
+          <a:off x="528955" y="1131570"/>
+          <a:ext cx="960120" cy="693420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,15 +1643,15 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="2.85714285714286" customWidth="1"/>
-    <col min="3" max="3" width="31.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="2.86111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="7.5" customHeight="1"/>
     <row r="4" ht="9" customHeight="1"/>
-    <row r="5" ht="15.75" spans="3:3">
+    <row r="5" ht="15.6" spans="3:3">
       <c r="C5" s="34" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1663,7 @@
       </c>
     </row>
     <row r="7" ht="9" customHeight="1"/>
-    <row r="8" ht="15.75" spans="2:3">
+    <row r="8" ht="15.6" spans="2:3">
       <c r="B8" s="35"/>
       <c r="C8" s="34" t="s">
         <v>2</v>
@@ -1683,7 +1686,7 @@
       </c>
     </row>
     <row r="12" ht="9" customHeight="1"/>
-    <row r="13" ht="15.75" spans="2:3">
+    <row r="13" ht="15.6" spans="2:3">
       <c r="B13" s="35"/>
       <c r="C13" s="34" t="s">
         <v>6</v>
@@ -1701,7 +1704,7 @@
       </c>
     </row>
     <row r="16" ht="9" customHeight="1"/>
-    <row r="17" ht="15.75" spans="3:3">
+    <row r="17" ht="15.6" spans="3:3">
       <c r="C17" s="34" t="s">
         <v>9</v>
       </c>
@@ -1712,12 +1715,12 @@
       </c>
     </row>
     <row r="19" ht="9" customHeight="1"/>
-    <row r="20" ht="15.75" spans="3:3">
+    <row r="20" ht="15.6" spans="3:3">
       <c r="C20" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="2:3">
+    <row r="21" ht="15.6" spans="2:3">
       <c r="B21" s="40" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="2:3">
+    <row r="22" ht="15.6" spans="2:3">
       <c r="B22" s="40" t="s">
         <v>12</v>
       </c>
@@ -1764,16 +1767,16 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.4285714285714" style="21" customWidth="1"/>
-    <col min="2" max="2" width="18.2857142857143" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.57142857142857" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7.71428571428571" style="21" customWidth="1"/>
-    <col min="5" max="5" width="7.28571428571429" style="22" customWidth="1"/>
-    <col min="6" max="6" width="10.5714285714286" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.28571428571429" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="24"/>
+    <col min="1" max="1" width="23.4259259259259" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.287037037037" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.57407407407407" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.71296296296296" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.28703703703704" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.5740740740741" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.28703703703704" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.13888888888889" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2809,13 +2812,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="4.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="4.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="18.75" spans="3:3">
+    <row r="1" customFormat="1" ht="18" spans="3:3">
       <c r="C1" s="14" t="s">
         <v>41</v>
       </c>
@@ -2889,16 +2892,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.86111111111111" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3" style="8" customWidth="1"/>
-    <col min="2" max="2" width="41.4285714285714" style="9" customWidth="1"/>
+    <col min="2" max="2" width="41.4259259259259" style="9" customWidth="1"/>
     <col min="3" max="3" width="64" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.85714285714286" style="8"/>
+    <col min="4" max="16384" width="8.86111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="6.75" customHeight="1"/>
-    <row r="2" ht="18.75" spans="2:2">
+    <row r="2" ht="18" spans="2:2">
       <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
@@ -2954,7 +2957,7 @@
     <row r="9" ht="9" customHeight="1" spans="2:2">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" ht="18.75" spans="2:2">
+    <row r="10" ht="18" spans="2:2">
       <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
@@ -2994,7 +2997,7 @@
     <row r="15" ht="9" customHeight="1" spans="2:2">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" ht="18.75" spans="2:2">
+    <row r="16" ht="18" spans="2:2">
       <c r="B16" s="10" t="s">
         <v>70</v>
       </c>
@@ -3035,19 +3038,19 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="26.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="26.5740740740741" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="51.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1"/>
-    <col min="9" max="9" width="29.4285714285714" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.2857142857143" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.8611111111111" customWidth="1"/>
+    <col min="6" max="6" width="9.13888888888889" style="1"/>
+    <col min="9" max="9" width="29.4259259259259" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.287037037037" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3150,8 +3153,8 @@
       <c r="F4" s="1">
         <v>300</v>
       </c>
-      <c r="G4">
-        <v>50</v>
+      <c r="G4" t="s">
+        <v>95</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -3165,19 +3168,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1">
         <v>500</v>
@@ -3197,13 +3200,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1">
         <v>300</v>
@@ -3223,16 +3226,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1">
         <v>1500</v>
